--- a/rtss-actors-199x/src/main/resources/soc-econ-block.xlsx
+++ b/rtss-actors-199x/src/main/resources/soc-econ-block.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-actors-199x\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E684DF-055A-418E-B4C8-3124C4FB4F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF277BD6-117B-41B9-AE81-F163C903480D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="255" windowWidth="20445" windowHeight="23070" xr2:uid="{776ACB6D-F83A-4FC0-97F2-AA28CFF7A3BC}"/>
+    <workbookView xWindow="4350" yWindow="105" windowWidth="20445" windowHeight="23070" xr2:uid="{776ACB6D-F83A-4FC0-97F2-AA28CFF7A3BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
